--- a/biology/Histoire de la zoologie et de la botanique/Amos_Eaton/Amos_Eaton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Amos_Eaton/Amos_Eaton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amos Eaton est un géologue et un botaniste américain, né le 17 mai 1776 dans la paroisse de New Concord (aujourd'hui Chatham) dans le district de Columbia, dans l'État de New York et mort le 10 mai 1842 à Troy, dans l'État de New York[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amos Eaton est un géologue et un botaniste américain, né le 17 mai 1776 dans la paroisse de New Concord (aujourd'hui Chatham) dans le district de Columbia, dans l'État de New York et mort le 10 mai 1842 à Troy, dans l'État de New York.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que passionné par l'histoire naturelle, Eaton opte des études de droit. Admis au barreau de New York en 1802. En 1811, Eaton est accusé de contrefaçon et est emprisonné. Bien qu'il proclame son innocence, il reste cinq ans en prison.
 C'est durant sa détention qu'il commence à faire des études scientifiques. Lors de sa libération, il passe un an au Yale College pour étudier la science sous Benjamin Silliman (1779-1864), le premier avoir distillé du pétrole, et Eli Ives (1778-1861). Il retourne ensuite au Williams College où il commence une série de conférences très appréciées.
